--- a/Database/Finalize logic tree/Unknown_Unknown_Engine is Overheating--Running too Hot.xlsx
+++ b/Database/Finalize logic tree/Unknown_Unknown_Engine is Overheating--Running too Hot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5A605-6C0C-475A-A5FB-7D358B1A02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDD5084-6640-42DA-81E2-C360040826CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{BFFC8730-46DD-4722-BDC3-E054D61DC637}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Node1</t>
   </si>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA1138C-082D-4492-AADE-BE830D3AF287}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,48 +580,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -640,42 +640,64 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
